--- a/questions/Assignment9-ClientCommandTableForA9.xlsx
+++ b/questions/Assignment9-ClientCommandTableForA9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khyat\SimplicityStudio\v5_workspace\ecen5823-assignment9-KhyatiSatta\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF295D4-FE49-470E-970C-17E75386C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2FD85B-980D-47E2-9CEF-EA6B05F8C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -34,121 +34,243 @@
     <t>Use this column to denote if BT stack events cause your state machine to advance, you can put an X in the cell to note this. Drawing a bubble diagram of your state machine might also be a good idea 👍.</t>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>LCD Display State</t>
+  </si>
+  <si>
+    <t>Advances State Machine</t>
+  </si>
+  <si>
+    <t>Commands called in response to event</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Events Common to Slaves/Clients</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_boot_id</t>
+  </si>
+  <si>
+    <t>This event is generated on stack boot up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can also document in column D values that need to be saved in response to receiving BT stack events. </t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_set_mode()</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_set_timing()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_set_default_parameters()</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_start()</t>
+  </si>
+  <si>
+    <t>You should start and stop scanning just like you did with advertising for a Server.</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_connection_opened_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_connection_closed_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_soft_timer_id</t>
+  </si>
+  <si>
+    <t>Events only for Masters/Clients</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_scanner_scan_report_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_procedure_completed_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_service_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_characteristic_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_characteristic_value_id</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
+  </si>
+  <si>
+    <t>The timer hits every 1 second. The displayUpdate() function is called which prevents charge buildup within the Liquid Crystal Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sl_bt_gatt_send_characteristic_confirmation()</t>
+  </si>
+  <si>
+    <t>Saving service handle from the data structure associated with the event. This event is triggered when the service is found based on UUID provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving the characteristic handle from the data structure associated with the event. This event is triggered when the characteristic is found based on UUID provided
+</t>
+  </si>
+  <si>
+    <t>This event indicates that a soft timer has expired.
+displayUpdate()</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION - "Handling Indications"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_BTADDR2 - Server Address
+DISPLAY_ROW_CONNECTION - "Connected"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_NAME - "Client"
+DISPLAY_ROW_BTADDR- Client Address
+DISPLAY_ROW_BTADDR2 - " "
+DISPLAY_ROW_CONNECTION - "Discovering"</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_delete_bondings()</t>
+  </si>
+  <si>
+    <t>Deletes previously bonded devices</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_configure()</t>
+  </si>
+  <si>
+    <t>Configure the security parameters</t>
+  </si>
+  <si>
+    <t>Moved to discovery state machine for the individual services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving connection handle from sl_bt_connection_open() API for future use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl_bt_sm_delete_bondings()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl_bt_scanner_start()
+</t>
+  </si>
+  <si>
+    <t>Moved to discovery state machine</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_external_signal_id</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_passkey_confirm()</t>
+  </si>
+  <si>
+    <t>When the button 0 is pressed to confirm the passkey on both the server and client, the device is bonded.</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_set_characteristic_notification()</t>
+  </si>
+  <si>
+    <t>Toggles on the sequence of button [When PB0 is pressed, PB1 is pressed and released and then PB0 is released]. Indications for the button state characteristic are toggled.</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_read_characteristic_value()</t>
+  </si>
+  <si>
+    <t>On pressing PB1, the value of the server's PB0 stored in the local GATT database is read. The PB1 button on the client Gecko emulates as a read button on the GUI.</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_increase_security()</t>
+  </si>
+  <si>
+    <t>When PB1 is hit the first time on the client without the devices being bonded, the read_characteristic_value API throws an error [ SL_STATUS_BT_ATT_INSUFFICIENT_ENCRYPTION]. This is when the security is increased and the bonding procedure is started.</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_confirm_passkey_id</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Print passkey on the client LCD screen for the client to confirm.</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonded_id</t>
+  </si>
+  <si>
+    <t>Event is triggered when bonding succeeds. Setting the user defined flag.</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonding_failed_id</t>
+  </si>
+  <si>
+    <t>Event is triggered when bonding fails. Clearing the user defined flag.</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_NAME - "Client"
+DISPLAY_ROW_BTADDR- Client Address
+DISPLAY_ROW_BTADDR2 - " "
+DISPLAY_ROW_TEMPVALUE - " "
+DISPLAY_ROW_CONNECTION - "Discovering"
+DISPLAY_ROW_ASSIGNMENT - "A9"</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_discover_characteristics_by_uuid()
+sl_bt_gatt_set_characteristic_notification()
+sl_bt_gatt_discover_primary_services_by_uuid()</t>
+  </si>
+  <si>
+    <t>Called in the discovery state machine</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_TEMPVALUE - Temp value
+DISPLAY_ROW_9 - Button Pressed/Released</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_PASSKEY - Passkey
+DISPLAY_ROW_ACTION - "Confirm with PB0"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION - "Bonded"</t>
+  </si>
+  <si>
+    <t>Acquire characteristic value (of the respective service and characteristic)</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t xml:space="preserve">Commands that may be useful:
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">sl_bt_gatt_discover_primary_services_by_uuid()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sl_bt_gatt_discover_characteristics_by_uuid()</t>
+      <t>sl_bt_gatt_discover_primary_services_by_uuid()
+sl_bt_gatt_discover_characteristics_by_uuid()</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>LCD Display State</t>
-  </si>
-  <si>
-    <t>Advances State Machine</t>
-  </si>
-  <si>
-    <t>Commands called in response to event</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Events Common to Slaves/Clients</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_system_boot_id</t>
-  </si>
-  <si>
-    <t>This event is generated on stack boot up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can also document in column D values that need to be saved in response to receiving BT stack events. </t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_set_mode()</t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_set_timing()</t>
-  </si>
-  <si>
-    <t>sl_bt_connection_set_default_parameters()</t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_start()</t>
-  </si>
-  <si>
-    <t>You should start and stop scanning just like you did with advertising for a Server.</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_connection_opened_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_connection_closed_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_system_soft_timer_id</t>
-  </si>
-  <si>
-    <t>Events only for Masters/Clients</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_scanner_scan_report_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_procedure_completed_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_service_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_characteristic_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_characteristic_value_id</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
-  </si>
-  <si>
-    <t>The timer hits every 1 second. The displayUpdate() function is called which prevents charge buildup within the Liquid Crystal Cells</t>
   </si>
   <si>
     <r>
@@ -156,7 +278,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -165,204 +287,16 @@
   sl_bt_connection_open()</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">   sl_bt_gatt_send_characteristic_confirmation()</t>
-  </si>
-  <si>
-    <t>Saving service handle from the data structure associated with the event. This event is triggered when the service is found based on UUID provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saving the characteristic handle from the data structure associated with the event. This event is triggered when the characteristic is found based on UUID provided
-</t>
-  </si>
-  <si>
-    <t>This event indicates that a soft timer has expired.
-displayUpdate()</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_CONNECTION - "Handling Indications"</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_BTADDR2 - Server Address
-DISPLAY_ROW_CONNECTION - "Connected"</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_NAME - "Client"
-DISPLAY_ROW_BTADDR- Client Address
-DISPLAY_ROW_BTADDR2 - " "
-DISPLAY_ROW_CONNECTION - "Discovering"</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_delete_bondings()</t>
-  </si>
-  <si>
-    <t>Deletes previously bonded devices</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_configure()</t>
-  </si>
-  <si>
-    <t>Configure the security parameters</t>
-  </si>
-  <si>
-    <t>Moved to discovery state machine for the individual services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saving connection handle from sl_bt_connection_open() API for future use </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sl_bt_sm_delete_bondings()
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sl_bt_scanner_start()
-</t>
-  </si>
-  <si>
-    <t>Moved to discovery state machine</t>
-  </si>
-  <si>
-    <t>Acquire characteristic value (Here temperature value)</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_system_external_signal_id</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_passkey_confirm()</t>
-  </si>
-  <si>
-    <t>When the button 0 is pressed to confirm the passkey on both the server and client, the device is bonded.</t>
-  </si>
-  <si>
-    <t>sl_bt_gatt_set_characteristic_notification()</t>
-  </si>
-  <si>
-    <t>Toggles on the sequence of button [When PB0 is pressed, PB1 is pressed and released and then PB0 is released]. Indications for the button state characteristic are toggled.</t>
-  </si>
-  <si>
-    <t>sl_bt_gatt_read_characteristic_value()</t>
-  </si>
-  <si>
-    <t>On pressing PB1, the value of the server's PB0 stored in the local GATT database is read. The PB1 button on the client Gecko emulates as a read button on the GUI.</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_increase_security()</t>
-  </si>
-  <si>
-    <t>When PB1 is hit the first time on the client without the devices being bonded, the read_characteristic_value API throws an error [ SL_STATUS_BT_ATT_INSUFFICIENT_ENCRYPTION]. This is when the security is increased and the bonding procedure is started.</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_confirm_passkey_id</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Print passkey on the client LCD screen for the client to confirm.</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_bonded_id</t>
-  </si>
-  <si>
-    <t>Event is triggered when bonding succeeds. Setting the user defined flag.</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_bonding_failed_id</t>
-  </si>
-  <si>
-    <t>Event is triggered when bonding fails. Clearing the user defined flag.</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_NAME - "Client"
-DISPLAY_ROW_BTADDR- Client Address
-DISPLAY_ROW_BTADDR2 - " "
-DISPLAY_ROW_TEMPVALUE - " "
-DISPLAY_ROW_CONNECTION - "Discovering"
-DISPLAY_ROW_ASSIGNMENT - "A9"</t>
-  </si>
-  <si>
-    <t>sl_bt_gatt_discover_characteristics_by_uuid()
-sl_bt_gatt_set_characteristic_notification()
-sl_bt_gatt_discover_primary_services_by_uuid()</t>
-  </si>
-  <si>
-    <t>Called in the discovery state machine</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_TEMPVALUE - Temp value
-DISPLAY_ROW_9 - Button Pressed/Released</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -379,6 +313,43 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -491,102 +462,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,23 +639,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1070108</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>172706</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>351536</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>113864</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138796</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6EC794-D329-452C-84B6-F4517C640338}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4056E11-14BA-4D1B-9BBD-D09B993939A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -716,8 +677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2879858" y="10010670"/>
-          <a:ext cx="5440293" cy="6132408"/>
+          <a:off x="4195482" y="25746635"/>
+          <a:ext cx="7772400" cy="4397031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,525 +1768,537 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="1" width="26.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21" style="8" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="119.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="F6" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="65.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="65.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="F42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/questions/Assignment9-ClientCommandTableForA9.xlsx
+++ b/questions/Assignment9-ClientCommandTableForA9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khyat\SimplicityStudio\v5_workspace\ecen5823-assignment9-KhyatiSatta\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2FD85B-980D-47E2-9CEF-EA6B05F8C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC28D5-3590-4859-8313-6FFA320CFD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,15 +476,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -549,6 +540,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,16 +646,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>138796</xdr:rowOff>
+      <xdr:colOff>1581134</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4056E11-14BA-4D1B-9BBD-D09B993939A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67AE07C-41FC-4FCE-9FA0-07D16E2F81E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -677,8 +677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4195482" y="25746635"/>
-          <a:ext cx="7772400" cy="4397031"/>
+          <a:off x="4195482" y="25486659"/>
+          <a:ext cx="8743934" cy="4930588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1770,200 +1770,200 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="16.33203125" style="8"/>
+    <col min="1" max="1" width="26.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21" style="5" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="119.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1971,14 +1971,14 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1989,10 +1989,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
@@ -2001,21 +2001,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2023,21 +2023,21 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2045,11 +2045,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2057,11 +2057,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2069,23 +2069,23 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2093,23 +2093,23 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -2117,21 +2117,21 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="20" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2139,31 +2139,31 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2171,37 +2171,37 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="20" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2209,21 +2209,21 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2231,21 +2231,21 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2253,23 +2253,23 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="65.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2277,24 +2277,24 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
